--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t>class no</t>
   </si>
@@ -44,6 +44,36 @@
   <si>
     <t>Structure, headings,
 paragraphs, links, images</t>
+  </si>
+  <si>
+    <t>1.5 hour</t>
+  </si>
+  <si>
+    <t>8:30-10:00</t>
+  </si>
+  <si>
+    <t>Ordered/unordered lists, tables, forms (inputs, labels, buttons)</t>
+  </si>
+  <si>
+    <t>8:30-9:50</t>
+  </si>
+  <si>
+    <t>1 hour 20 min</t>
+  </si>
+  <si>
+    <t>Selectors, colors, units, inline vs external CSS Margin, padding, border,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> text styles, fonts, Google Fonts Inline/block, relative, absolute, fixed, z-index</t>
+  </si>
+  <si>
+    <t>Container, alignment, spacing, ordering</t>
+  </si>
+  <si>
+    <t>Hover effects, keyframes, transitions, transforms</t>
+  </si>
+  <si>
+    <t>Rows, columns, spanning, responsive grids Media queries, mobile-first, CSS variables</t>
   </si>
 </sst>
 </file>
@@ -365,16 +395,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -424,6 +455,9 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -438,6 +472,9 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -452,6 +489,9 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -465,6 +505,9 @@
       </c>
       <c r="D6" t="s">
         <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -475,32 +518,38 @@
         <v>45926</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>45927</v>
+        <v>45929</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -511,10 +560,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -525,10 +574,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -539,10 +588,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -553,10 +602,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>45932</v>
+        <v>45934</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -567,10 +616,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>45933</v>
+        <v>45935</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -581,10 +630,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>45934</v>
+        <v>45936</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -595,10 +644,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>45935</v>
+        <v>45937</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -609,10 +658,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>45936</v>
+        <v>45938</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -623,10 +672,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -637,10 +686,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -651,10 +700,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>45939</v>
+        <v>45941</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -665,10 +714,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -679,10 +728,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>45941</v>
+        <v>45943</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -693,10 +742,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>45942</v>
+        <v>45944</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -707,10 +756,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -721,10 +770,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -735,10 +784,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -749,10 +798,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>45946</v>
+        <v>45948</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -763,10 +812,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>45947</v>
+        <v>45949</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -776,45 +825,17 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45948</v>
-      </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45949</v>
-      </c>
       <c r="C30" t="s">
         <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
   <si>
     <t>class no</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Rows, columns, spanning, responsive grids Media queries, mobile-first, CSS variables</t>
+  </si>
+  <si>
+    <t>1 hour 10 min</t>
   </si>
 </sst>
 </file>
@@ -397,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>class no</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>1 hour 10 min</t>
+  </si>
+  <si>
+    <t>refreshing design concepts, Variables (let, const)</t>
+  </si>
+  <si>
+    <t>1 hour 30 min</t>
+  </si>
+  <si>
+    <t>operators, data types ,if-else</t>
+  </si>
+  <si>
+    <t>8:30-9:45</t>
   </si>
 </sst>
 </file>
@@ -400,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,10 +567,13 @@
         <v>45930</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,10 +584,13 @@
         <v>45931</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>class no</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>8:30-9:45</t>
+  </si>
+  <si>
+    <t>switch, loops , functions</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +609,9 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,10 +621,10 @@
         <v>45933</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>class no</t>
   </si>
@@ -91,7 +91,16 @@
     <t>8:30-9:45</t>
   </si>
   <si>
-    <t>switch, loops , functions</t>
+    <t>8:00-9:30</t>
+  </si>
+  <si>
+    <t>Selecting elements, events (click, input), modifying styles &amp; content</t>
+  </si>
+  <si>
+    <t>switch, loops , functions,Function declaration, arrow functions, parameters &amp; return</t>
+  </si>
+  <si>
+    <t>Creating/removing elements, classList, traversing , basic array methods</t>
   </si>
 </sst>
 </file>
@@ -413,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +556,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>45929</v>
@@ -564,7 +573,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>45930</v>
@@ -581,7 +590,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>45931</v>
@@ -598,7 +607,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>45932</v>
@@ -610,12 +619,12 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>45933</v>
@@ -626,27 +635,33 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45934</v>
+        <v>45936</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45935</v>
+        <v>45937</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -657,10 +672,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45936</v>
+        <v>45938</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -671,10 +686,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -685,10 +700,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -699,10 +714,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>45939</v>
+        <v>45941</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -713,10 +728,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -727,10 +742,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>45941</v>
+        <v>45943</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -741,10 +756,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>45942</v>
+        <v>45944</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -755,10 +770,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -769,10 +784,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -783,10 +798,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -797,10 +812,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>45946</v>
+        <v>45948</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -811,10 +826,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>45947</v>
+        <v>45949</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -824,45 +839,17 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45948</v>
-      </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45949</v>
-      </c>
       <c r="C28" t="s">
         <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,10 +664,10 @@
         <v>45937</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>class no</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Creating/removing elements, classList, traversing , basic array methods</t>
+  </si>
+  <si>
+    <t>8:30-9:00</t>
   </si>
 </sst>
 </file>
@@ -424,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +681,7 @@
         <v>45938</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>class no</t>
   </si>
@@ -46,9 +46,6 @@
 paragraphs, links, images</t>
   </si>
   <si>
-    <t>1.5 hour</t>
-  </si>
-  <si>
     <t>8:30-10:00</t>
   </si>
   <si>
@@ -104,6 +101,24 @@
   </si>
   <si>
     <t>8:30-9:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array methods (map, filter, reduce), object basics </t>
+  </si>
+  <si>
+    <t>Destructuring, template literals, spread/rest Store/retrieve data, JSON parse/stringify</t>
+  </si>
+  <si>
+    <t>Promises, async/await, fetch API ,Build a To-Do App (HTML+CSS+JS)</t>
+  </si>
+  <si>
+    <t>Build a To-Do App (HTML+CSS+JS) , Timers , creating react project</t>
+  </si>
+  <si>
+    <t>1hour 30 minutes</t>
+  </si>
+  <si>
+    <t>What is React, JSX, components, props , styling , fragments</t>
   </si>
 </sst>
 </file>
@@ -425,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -520,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,13 +563,13 @@
         <v>45926</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,13 +580,13 @@
         <v>45929</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -582,13 +597,13 @@
         <v>45930</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -599,13 +614,13 @@
         <v>45931</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,13 +648,13 @@
         <v>45933</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,13 +665,13 @@
         <v>45936</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,10 +682,13 @@
         <v>45937</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,10 +699,13 @@
         <v>45938</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,41 +721,50 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>45941</v>
+        <v>45944</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>45942</v>
+        <v>45945</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -743,12 +773,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>45943</v>
+        <v>45946</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -757,12 +787,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>45944</v>
+        <v>45947</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -771,12 +801,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>45945</v>
+        <v>45948</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -785,12 +815,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>45946</v>
+        <v>45949</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -799,64 +829,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45947</v>
-      </c>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45948</v>
-      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>45949</v>
-      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17B4AE-F49C-4800-844F-80CDF4C52044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>class no</t>
   </si>
@@ -119,12 +120,15 @@
   </si>
   <si>
     <t>What is React, JSX, components, props , styling , fragments</t>
+  </si>
+  <si>
+    <t>props , conditional rendering, events</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,21 +443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -504,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -521,7 +525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -538,7 +542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -555,7 +559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -572,7 +576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -589,7 +593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -606,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -623,7 +627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -640,7 +644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -657,7 +661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -674,7 +678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -691,7 +695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -708,7 +712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -725,7 +729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -742,9 +746,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>45944</v>
@@ -759,88 +763,95 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
-        <v>45945</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B22" s="1">
+        <v>45949</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
-        <v>45946</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B23" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
-        <v>45947</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B24" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
-        <v>45948</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45949</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>45952</v>
+      </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
         <v>4</v>
       </c>
     </row>

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17B4AE-F49C-4800-844F-80CDF4C52044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D983D2-4198-4F5F-B0FF-BE6949180060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>class no</t>
   </si>
@@ -122,7 +122,16 @@
     <t>What is React, JSX, components, props , styling , fragments</t>
   </si>
   <si>
-    <t>props , conditional rendering, events</t>
+    <t xml:space="preserve">state and forms </t>
+  </si>
+  <si>
+    <t>8:00-9:00</t>
+  </si>
+  <si>
+    <t>props , conditional rendering, events ,list and keys</t>
+  </si>
+  <si>
+    <t>useEffect and data fetching</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,63 +780,66 @@
         <v>45946</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>45948</v>
+        <v>45959</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>45949</v>
+        <v>45950</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -835,23 +847,12 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45952</v>
-      </c>
-      <c r="C25" t="s">
         <v>4</v>
       </c>
     </row>

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D983D2-4198-4F5F-B0FF-BE6949180060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9108C8D1-BDA5-4D5C-992E-04F5FA340661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>class no</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>useEffect and data fetching</t>
+  </si>
+  <si>
+    <t>prop drilling and lifting up state and statemanagement</t>
+  </si>
+  <si>
+    <t>context API</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,10 +834,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>45950</v>
+        <v>45960</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -839,10 +851,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>45951</v>
+        <v>45961</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">

--- a/classes-data.xlsx
+++ b/classes-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9108C8D1-BDA5-4D5C-992E-04F5FA340661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C2837-C3F9-4FC2-81AE-805F2E04CAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>class no</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>context API</t>
+  </si>
+  <si>
+    <t>React-router</t>
+  </si>
+  <si>
+    <t>complete project and course completed</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +860,7 @@
         <v>45961</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -868,10 +874,33 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>45952</v>
+        <v>45965</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
